--- a/ONCHO/Breeding Site Survey/Ghana/2022 semptember/gn_oncho_bsa_4_dbs_collection_202210.xlsx
+++ b/ONCHO/Breeding Site Survey/Ghana/2022 semptember/gn_oncho_bsa_4_dbs_collection_202210.xlsx
@@ -496,10 +496,10 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(2022 October) - 4. DBS collection V1</t>
-  </si>
-  <si>
-    <t>gn_oncho_bsa_4_dbs_collection_202210_v1</t>
+    <t>(2022 October) - 4. DBS collection V2</t>
+  </si>
+  <si>
+    <t>gn_oncho_bsa_4_dbs_collection_202210_v2</t>
   </si>
   <si>
     <t>English</t>
@@ -522,10 +522,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -567,16 +567,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -591,14 +606,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,32 +620,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,8 +644,51 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,44 +702,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,25 +725,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,7 +761,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,25 +881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,37 +893,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,67 +905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,6 +975,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1000,16 +1015,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,195 +1058,162 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3151,7 +3151,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/ONCHO/Breeding Site Survey/Ghana/2022 semptember/gn_oncho_bsa_4_dbs_collection_202210.xlsx
+++ b/ONCHO/Breeding Site Survey/Ghana/2022 semptember/gn_oncho_bsa_4_dbs_collection_202210.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="171">
   <si>
     <t>type</t>
   </si>
@@ -64,7 +64,7 @@
     <t>d_recorder_id</t>
   </si>
   <si>
-    <t>Enter recorder ID   </t>
+    <t>1. Enter recorder ID   </t>
   </si>
   <si>
     <t>Enter 2-digit recorder code provided to each recorder (person doing the data entry)</t>
@@ -85,7 +85,7 @@
     <t>d_region</t>
   </si>
   <si>
-    <t>Select Region </t>
+    <t>2. Select Region </t>
   </si>
   <si>
     <t>select_one district</t>
@@ -94,7 +94,7 @@
     <t>d_district</t>
   </si>
   <si>
-    <t>Select district   </t>
+    <t>3. Select district   </t>
   </si>
   <si>
     <t>Select the appropriate district</t>
@@ -121,7 +121,7 @@
     <t>d_site</t>
   </si>
   <si>
-    <t>Select community name</t>
+    <t>4. Select community name</t>
   </si>
   <si>
     <t>if(selected(${d_district}, 'Other'), false(),true())</t>
@@ -145,28 +145,49 @@
     <t>d_consent</t>
   </si>
   <si>
-    <t>Does respondent provide consent?  </t>
+    <t>5. Does respondent provide consent?  </t>
   </si>
   <si>
     <t>Yes or no. No will end the survey</t>
   </si>
   <si>
+    <t>begin group</t>
+  </si>
+  <si>
     <t>d_time_lived_in_village</t>
   </si>
   <si>
-    <t>How many years has the respondent lived in this village? </t>
+    <t>6. How many years has the respondent lived in this village? </t>
+  </si>
+  <si>
+    <t>field-list</t>
   </si>
   <si>
     <t>selected(${d_consent},'Yes')</t>
   </si>
   <si>
+    <t>nb_year</t>
+  </si>
+  <si>
+    <t>Years the respondent lived in this village</t>
+  </si>
+  <si>
+    <t>nb_month</t>
+  </si>
+  <si>
+    <t>Month the respondent lived in this village</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
     <t>select_one sex</t>
   </si>
   <si>
     <t>d_sex</t>
   </si>
   <si>
-    <t>Is the respondent male or female?  </t>
+    <t>7. Is the respondent male or female?  </t>
   </si>
   <si>
     <t>Male or female</t>
@@ -175,7 +196,7 @@
     <t>d_age_yrs</t>
   </si>
   <si>
-    <t>How old is the respondent  </t>
+    <t>8. How old is the respondent  </t>
   </si>
   <si>
     <t>Enter age in years</t>
@@ -190,13 +211,13 @@
     <t>d_travel</t>
   </si>
   <si>
-    <t>Do you frequently travel long distances from this village? </t>
+    <t>9. Do you frequently travel long distances from this village? </t>
   </si>
   <si>
     <t>d_travel_details</t>
   </si>
   <si>
-    <t>If yes, please give details </t>
+    <t>10. If yes, please give details </t>
   </si>
   <si>
     <t>selected(${d_consent},'Yes') and ${d_travel} = 'Yes'</t>
@@ -205,16 +226,13 @@
     <t>d_ivm</t>
   </si>
   <si>
-    <t>Have you taken Ivermectin in the past 12 months?  </t>
-  </si>
-  <si>
-    <t>begin group</t>
+    <t>11. Have you taken Ivermectin in the past 12 months?  </t>
   </si>
   <si>
     <t>d_ivm_when</t>
   </si>
   <si>
-    <t>When were you given Ivermectin?  </t>
+    <t>12. When were you given Ivermectin?  </t>
   </si>
   <si>
     <t>selected(${d_consent},'Yes') and ${d_ivm} = 'Yes'</t>
@@ -241,13 +259,10 @@
     <t>The month you last received the IVM</t>
   </si>
   <si>
-    <t>end group</t>
-  </si>
-  <si>
     <t>d_ivm_where</t>
   </si>
   <si>
-    <t>Where were you given IVM? In this village, as part of a mass treatment campaign, at a Health Centre or other? </t>
+    <t>13. Where were you given IVM? In this village, as part of a mass treatment campaign, at a Health Centre or other? </t>
   </si>
   <si>
     <t>select_one IDMethod</t>
@@ -256,7 +271,7 @@
     <t>d_IDMethod</t>
   </si>
   <si>
-    <t>How will the individual's unique ID be generated?  </t>
+    <t>14. How will the individual's unique ID be generated?  </t>
   </si>
   <si>
     <t>barcode</t>
@@ -265,7 +280,7 @@
     <t>d_BarcodeID</t>
   </si>
   <si>
-    <t>Scan barcode now  </t>
+    <t>15. Scan barcode now  </t>
   </si>
   <si>
     <t>selected(${d_consent},'Yes') and ${d_IDMethod} = 'Scanner'</t>
@@ -274,7 +289,7 @@
     <t>d_GenerateID</t>
   </si>
   <si>
-    <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered, including OV16 RDT and Dry Blood Spot tests  </t>
+    <t>16. Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered, including OV16 RDT and Dry Blood Spot tests  </t>
   </si>
   <si>
     <t>selected(${d_consent},'Yes') and ${d_IDMethod} != 'Scanner'</t>
@@ -295,7 +310,7 @@
     <t>d_AdditionalNotes</t>
   </si>
   <si>
-    <t>Additional notes  </t>
+    <t>17. Additional notes  </t>
   </si>
   <si>
     <t>start</t>
@@ -496,10 +511,10 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(2022 October) - 4. DBS collection V2</t>
-  </si>
-  <si>
-    <t>gn_oncho_bsa_4_dbs_collection_202210_v2</t>
+    <t>(2022 October) - 4. DBS collection V3</t>
+  </si>
+  <si>
+    <t>gn_oncho_bsa_4_dbs_collection_202210_v3</t>
   </si>
   <si>
     <t>English</t>
@@ -522,10 +537,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -575,7 +590,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,36 +634,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -651,15 +650,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,28 +660,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,7 +676,50 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,19 +740,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,7 +776,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,31 +890,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,103 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,6 +1014,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1031,9 +1055,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,17 +1069,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,142 +1090,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1273,13 +1288,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1626,14 +1641,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1709,7 +1724,7 @@
       <c r="F2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="23" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="19"/>
@@ -1734,7 +1749,7 @@
       <c r="D3" s="20"/>
       <c r="E3" s="19"/>
       <c r="F3" s="27"/>
-      <c r="G3" s="22"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19" t="s">
@@ -1759,7 +1774,7 @@
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="22"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19" t="s">
@@ -1784,7 +1799,7 @@
       <c r="D5" s="20"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="18" t="s">
         <v>31</v>
       </c>
@@ -1809,7 +1824,7 @@
       <c r="D6" s="20"/>
       <c r="E6" s="19"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="22"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="27" t="s">
         <v>35</v>
       </c>
@@ -1836,7 +1851,7 @@
       <c r="D7" s="20"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="22"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="27" t="s">
         <v>39</v>
       </c>
@@ -1863,7 +1878,7 @@
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19" t="s">
@@ -1875,48 +1890,44 @@
     </row>
     <row r="9" s="3" customFormat="1" ht="28.5" spans="1:13">
       <c r="A9" s="18" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="15.75" spans="1:13">
+    <row r="10" s="3" customFormat="1" spans="1:13">
       <c r="A10" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="18" t="s">
-        <v>46</v>
-      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19" t="s">
         <v>19</v>
@@ -1925,101 +1936,95 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" s="3" customFormat="1" ht="15.75" spans="1:13">
+    <row r="11" s="3" customFormat="1" spans="1:13">
       <c r="A11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="18"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="18"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:13">
       <c r="A12" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:13">
+    <row r="13" s="3" customFormat="1" ht="15.75" spans="1:13">
       <c r="A13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="I13" s="19"/>
       <c r="J13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="18"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" s="3" customFormat="1" ht="30" spans="1:13">
+    <row r="14" s="3" customFormat="1" ht="15.75" spans="1:13">
       <c r="A14" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="G14" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="26"/>
       <c r="H14" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="19" t="s">
@@ -2031,71 +2036,71 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:13">
       <c r="A15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="C15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="24"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="18" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
+      <c r="J15" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:13">
       <c r="A16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="18"/>
       <c r="I16" s="18"/>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="19" t="s">
         <v>19</v>
       </c>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:13">
+    <row r="17" s="3" customFormat="1" ht="30" spans="1:13">
       <c r="A17" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="22"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="18"/>
+      <c r="H17" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="I17" s="18"/>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="19" t="s">
         <v>19</v>
       </c>
       <c r="K17" s="18"/>
@@ -2104,202 +2109,279 @@
     </row>
     <row r="18" s="3" customFormat="1" spans="1:13">
       <c r="A18" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="F18" s="18"/>
       <c r="G18" s="26"/>
-      <c r="H18" s="18"/>
+      <c r="H18" s="18" t="s">
+        <v>72</v>
+      </c>
       <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="J18" s="19"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:13">
       <c r="A19" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="G19" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="18" t="s">
-        <v>66</v>
-      </c>
+      <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="18" t="s">
         <v>19</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="26" t="s">
+    <row r="20" s="3" customFormat="1" spans="1:13">
+      <c r="A20" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="19" t="s">
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="26" t="s">
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:13">
+      <c r="A21" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:13">
+      <c r="A22" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>85</v>
-      </c>
       <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="26"/>
       <c r="H22" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="I22" s="18"/>
       <c r="J22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-    </row>
-    <row r="23" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A23" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="28"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="26" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
-      <c r="H24" s="18"/>
+      <c r="H24" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
+      <c r="J24" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="26" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="25"/>
+        <v>89</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>90</v>
+      </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
+      <c r="H25" s="18" t="s">
+        <v>91</v>
+      </c>
       <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
+      <c r="J25" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="K25" s="26"/>
       <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="26" t="s">
+      <c r="M25" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A26" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="I26" s="18"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
+      <c r="C27" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2330,7 +2412,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2339,264 +2421,264 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" customFormat="1" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:3">
       <c r="A8" s="13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="13" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="13" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D22" s="12"/>
     </row>
@@ -2650,24 +2732,24 @@
     </row>
     <row r="35" customFormat="1" spans="1:3">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:3">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="3:3">
@@ -2675,86 +2757,86 @@
     </row>
     <row r="38" customFormat="1" spans="1:4">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:4">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:4">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:4">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" t="s">
         <v>129</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" t="s">
         <v>130</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="3:3">
@@ -2762,380 +2844,380 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" t="s">
         <v>131</v>
-      </c>
-      <c r="B45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E50" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" t="s">
         <v>131</v>
-      </c>
-      <c r="B52" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E52" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54" t="s">
         <v>131</v>
-      </c>
-      <c r="B54" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E54" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E55" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E56" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E57" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E58" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E59" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E60" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" t="s">
         <v>131</v>
-      </c>
-      <c r="B61" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" t="s">
-        <v>148</v>
-      </c>
-      <c r="E61" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E62" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E63" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E64" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E67" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" t="s">
         <v>131</v>
-      </c>
-      <c r="B68" t="s">
-        <v>130</v>
-      </c>
-      <c r="C68" t="s">
-        <v>130</v>
-      </c>
-      <c r="E68" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E69" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E70" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E71" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3150,8 +3232,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -3163,27 +3245,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -3214,19 +3296,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3234,16 +3316,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3251,16 +3333,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3268,16 +3350,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3285,16 +3367,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:4">
@@ -3302,13 +3384,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:4">
@@ -3316,13 +3398,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:4">
@@ -3330,13 +3412,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:4">
@@ -3344,13 +3426,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:4">
@@ -3358,13 +3440,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:4">
@@ -3372,13 +3454,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:4">
@@ -3386,13 +3468,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:4">
@@ -3400,13 +3482,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:4">
@@ -3414,13 +3496,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:4">
@@ -3428,13 +3510,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:4">
@@ -3442,13 +3524,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:4">
@@ -3456,13 +3538,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:4">
@@ -3470,13 +3552,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:4">
@@ -3484,13 +3566,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:4">
@@ -3498,13 +3580,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:4">
@@ -3512,13 +3594,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:4">
@@ -3526,13 +3608,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:4">
@@ -3540,13 +3622,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:4">
@@ -3554,18 +3636,18 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="4:4">
       <c r="D25" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
